--- a/Projeto 2/tweets_certos_2.0.xlsx
+++ b/Projeto 2/tweets_certos_2.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arfel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Documents\GitHub\Ciencia-dos-Dados1\Ciencia-dos-Dados\Projeto 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D4CA462-08E5-419A-9706-3169C0EB088B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4D697A-4B6D-4ED7-8952-C34ADD371BF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1331,7 +1331,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1341,6 +1341,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1383,11 +1391,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1395,6 +1400,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1735,18 +1747,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B303"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView zoomScale="104" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="223.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1754,31 +1766,31 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>202</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>203</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B5">
@@ -1786,15 +1798,15 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>204</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>205</v>
       </c>
       <c r="B7">
@@ -1802,31 +1814,31 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>206</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>207</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>208</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>209</v>
       </c>
       <c r="B11">
@@ -1834,7 +1846,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>210</v>
       </c>
       <c r="B12">
@@ -1842,15 +1854,15 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>211</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>207</v>
       </c>
       <c r="B14">
@@ -1858,15 +1870,15 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>212</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>213</v>
       </c>
       <c r="B16">
@@ -1874,31 +1886,31 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>214</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>215</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>216</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B20">
@@ -1906,15 +1918,15 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>217</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>218</v>
       </c>
       <c r="B22">
@@ -1922,23 +1934,23 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="6" t="s">
         <v>219</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>220</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B25">
@@ -1946,7 +1958,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="6" t="s">
         <v>221</v>
       </c>
       <c r="B26">
@@ -1954,7 +1966,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="6" t="s">
         <v>222</v>
       </c>
       <c r="B27">
@@ -1962,7 +1974,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="6" t="s">
         <v>223</v>
       </c>
       <c r="B28">
@@ -1970,7 +1982,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>224</v>
       </c>
       <c r="B29">
@@ -1978,15 +1990,15 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="6" t="s">
         <v>225</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B31">
@@ -1994,7 +2006,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="6" t="s">
         <v>226</v>
       </c>
       <c r="B32">
@@ -2002,15 +2014,15 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B34">
@@ -2018,7 +2030,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="6" t="s">
         <v>228</v>
       </c>
       <c r="B35">
@@ -2026,7 +2038,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B36">
@@ -2034,7 +2046,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="6" t="s">
         <v>230</v>
       </c>
       <c r="B37">
@@ -2042,7 +2054,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="6" t="s">
         <v>231</v>
       </c>
       <c r="B38">
@@ -2050,7 +2062,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="6" t="s">
         <v>232</v>
       </c>
       <c r="B39">
@@ -2058,7 +2070,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="6" t="s">
         <v>233</v>
       </c>
       <c r="B40">
@@ -2066,15 +2078,15 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="6" t="s">
         <v>234</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>235</v>
       </c>
       <c r="B42">
@@ -2082,7 +2094,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="6" t="s">
         <v>236</v>
       </c>
       <c r="B43">
@@ -2090,7 +2102,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="6" t="s">
         <v>237</v>
       </c>
       <c r="B44">
@@ -2098,7 +2110,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="6" t="s">
         <v>226</v>
       </c>
       <c r="B45">
@@ -2106,15 +2118,15 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="6" t="s">
         <v>238</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>239</v>
       </c>
       <c r="B47">
@@ -2122,15 +2134,15 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="6" t="s">
         <v>240</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>241</v>
       </c>
       <c r="B49">
@@ -2138,15 +2150,15 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="6" t="s">
         <v>242</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B51">
@@ -2154,2023 +2166,2024 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="6" t="s">
         <v>226</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="4">
+    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="4">
+      <c r="A55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="B58" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="B62" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="B66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="B69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B71" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="B71" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B72" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="B72" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B78" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B80" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="B86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B90" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+      <c r="B90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B93" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+      <c r="B93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+      <c r="B94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B95" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+      <c r="B95" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B97" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="B97" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B103" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+      <c r="B103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B107" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
+      <c r="B107" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B108" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+      <c r="B108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B109" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
+      <c r="B109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B111" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
+      <c r="B111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B113" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
+      <c r="B113" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B114" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
+      <c r="B114" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B115" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
+      <c r="B115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B116" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="B116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B118" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
+      <c r="B118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B120" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B121" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
+      <c r="B121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B122" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
+      <c r="B122" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B124" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
+      <c r="B124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B125" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
+      <c r="B125" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B126" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+      <c r="B126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B127" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+      <c r="B127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B128" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
+      <c r="B128" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B129" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
+      <c r="B129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B130" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
+      <c r="B130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B131" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
+      <c r="B131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B132" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
+      <c r="B132" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B134" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
+      <c r="B134" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B135" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
+      <c r="B135" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B136" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="B136" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B137" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
+      <c r="B137" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B139" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
+      <c r="B139" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B140" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
+      <c r="B140" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B142" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
+      <c r="B142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B144" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
+      <c r="B144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B145" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
+      <c r="B145" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B146" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
+      <c r="B146" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B148" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
+      <c r="B148" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B149" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
+      <c r="B149" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B150" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
+      <c r="B150" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B159" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
+      <c r="B159" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B162" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
+      <c r="B162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
+      <c r="A164" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B165" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
+      <c r="B165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B167" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
+      <c r="B167" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B168" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
+      <c r="B168" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B173" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
+      <c r="A174" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
+      <c r="A176" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B177" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
+      <c r="B177" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B178" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
+      <c r="B178" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B179" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
+      <c r="B179" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
+      <c r="A182" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B182" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
+      <c r="B182" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B184" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
+      <c r="B184" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B185" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
+      <c r="B185" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B186" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
+      <c r="B186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B187" s="4">
+      <c r="B187" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
+      <c r="A188" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="4" t="s">
+      <c r="A189" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B189" s="4">
+      <c r="B189" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
+      <c r="A190" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B190" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="4" t="s">
+      <c r="B190" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B191" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
+      <c r="A192" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B192" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
+      <c r="B192" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
+      <c r="A194" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B194" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
+      <c r="B194" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B195" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
+      <c r="B195" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B197" s="4">
+      <c r="B197" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
+      <c r="A198" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B198" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
+      <c r="A199" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B199" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
+      <c r="A200" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B200" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="4" t="s">
+      <c r="B200" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B201" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
+      <c r="B201" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
+      <c r="A203" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B203" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="4" t="s">
+      <c r="B203" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B204" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="4" t="s">
+      <c r="B204" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B205" s="4">
+      <c r="B205" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="4" t="s">
+      <c r="A206" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B206" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
+      <c r="B206" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B207" s="4">
+      <c r="B207" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="4" t="s">
+      <c r="A208" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B208" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
+      <c r="A209" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B209" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
+      <c r="B209" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B211" s="4">
+      <c r="B211" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
+      <c r="A212" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="4" t="s">
+      <c r="A213" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B213" s="4">
+      <c r="B213" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="4" t="s">
+      <c r="A214" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B214" s="4">
+      <c r="B214" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B215" s="4">
+      <c r="B215" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="4" t="s">
+      <c r="A216" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B216" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
+      <c r="B216" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B217" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
+      <c r="B217" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B218" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
+      <c r="A219" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B219" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
+      <c r="B219" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A220" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B220" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
+      <c r="B220" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A221" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B221" s="4">
+      <c r="B221" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
+      <c r="A222" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B222" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="4" t="s">
+      <c r="B222" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B223" s="4">
+      <c r="B223" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
+      <c r="A224" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B224" s="4">
+      <c r="B224" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
+      <c r="A225" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B225" s="4">
+      <c r="B225" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
+      <c r="A226" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B226" s="4">
+      <c r="B226" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B227" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="4" t="s">
+      <c r="B227" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B228" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
+      <c r="B228" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B229" s="4">
+      <c r="B229" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="4" t="s">
+      <c r="A230" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B230" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="4" t="s">
+      <c r="B230" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B231" s="4">
+      <c r="B231" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="4" t="s">
+      <c r="A232" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B232" s="4">
+      <c r="B232" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="4" t="s">
+      <c r="A233" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B233" s="4">
+      <c r="B233" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="4" t="s">
+      <c r="A234" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B234" s="4">
+      <c r="B234" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="4" t="s">
+      <c r="A235" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B235" s="4">
+      <c r="B235" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="4" t="s">
+      <c r="A236" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B236" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="4" t="s">
+      <c r="B236" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A237" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B237" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="4" t="s">
+      <c r="B237" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A238" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B238" s="4">
+      <c r="B238" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="4" t="s">
+      <c r="A239" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B239" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="4" t="s">
+      <c r="B239" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B240" s="4">
+      <c r="B240" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="4" t="s">
+      <c r="A241" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B241" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="4" t="s">
+      <c r="B241" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B242" s="4">
+      <c r="B242" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="4" t="s">
+      <c r="A243" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B243" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="4" t="s">
+      <c r="B243" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B244" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="4" t="s">
+      <c r="B244" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A245" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B245" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="4" t="s">
+      <c r="B245" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B246" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="4" t="s">
+      <c r="B246" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A247" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B247" s="4">
+      <c r="B247" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="4" t="s">
+      <c r="A248" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B248" s="4">
+      <c r="B248" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="4" t="s">
+      <c r="A249" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B249" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="4" t="s">
+      <c r="B249" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B250" s="4">
+      <c r="B250" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="4" t="s">
+      <c r="A251" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B251" s="4">
+      <c r="B251" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="4" t="s">
+      <c r="A252" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B252" s="4">
+      <c r="B252" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="4" t="s">
+      <c r="A253" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B253" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="4" t="s">
+      <c r="B253" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A254" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B254" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="4" t="s">
+      <c r="B254" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A255" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B255" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="4" t="s">
+      <c r="B255" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A256" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B256" s="4">
+      <c r="B256" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="4" t="s">
+      <c r="A257" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B257" s="4">
+      <c r="B257" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="4" t="s">
+      <c r="A258" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B258" s="4">
+      <c r="B258" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="4" t="s">
+      <c r="A259" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B259" s="4">
+      <c r="B259" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="4" t="s">
+      <c r="A260" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B260" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="4" t="s">
+      <c r="B260" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A261" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B261" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="4" t="s">
+      <c r="B261" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B262" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="4" t="s">
+      <c r="B262" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A263" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B263" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="4" t="s">
+      <c r="B263" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A264" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B264" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="4" t="s">
+      <c r="B264" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A265" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B265" s="4">
+      <c r="B265" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="4" t="s">
+      <c r="A266" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B266" s="4">
+      <c r="B266" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="4" t="s">
+      <c r="A267" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B267" s="4">
+      <c r="B267" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="4" t="s">
+      <c r="A268" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B268" s="4">
+      <c r="B268" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="4" t="s">
+      <c r="A269" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B269" s="4">
+      <c r="B269" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="4" t="s">
+      <c r="A270" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B270" s="4">
+      <c r="B270" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="4" t="s">
+      <c r="A271" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B271" s="4">
+      <c r="B271" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="4" t="s">
+      <c r="A272" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B272" s="4">
+      <c r="B272" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="4" t="s">
+      <c r="A273" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B273" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="4" t="s">
+      <c r="B273" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A274" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B274" s="4">
+      <c r="B274" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="4" t="s">
+      <c r="A275" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B275" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="4" t="s">
+      <c r="B275" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A276" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B276" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="4" t="s">
+      <c r="B276" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A277" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B277" s="4">
+      <c r="B277" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="4" t="s">
+      <c r="A278" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B278" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="4" t="s">
+      <c r="B278" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A279" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B279" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="4" t="s">
+      <c r="B279" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A280" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B280" s="4">
+      <c r="B280" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="4" t="s">
+      <c r="A281" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B281" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="4" t="s">
+      <c r="B281" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A282" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B282" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="4" t="s">
+      <c r="B282" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A283" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B283" s="4">
+      <c r="B283" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="4" t="s">
+      <c r="A284" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B284" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="4" t="s">
+      <c r="B284" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A285" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B285" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="4" t="s">
+      <c r="B285" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A286" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B286" s="4">
+      <c r="B286" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="4" t="s">
+      <c r="A287" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B287" s="4">
+      <c r="B287" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="4" t="s">
+      <c r="A288" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B288" s="4">
+      <c r="B288" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="4" t="s">
+      <c r="A289" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B289" s="4">
+      <c r="B289" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="4" t="s">
+      <c r="A290" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B290" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="4" t="s">
+      <c r="B290" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A291" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B291" s="4">
+      <c r="B291" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="4" t="s">
+      <c r="A292" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B292" s="4">
+      <c r="B292" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="4" t="s">
+      <c r="A293" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B293" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="4" t="s">
+      <c r="B293" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A294" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B294" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="4" t="s">
+      <c r="B294" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A295" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B295" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="4" t="s">
+      <c r="B295" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A296" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B296" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="4" t="s">
+      <c r="B296" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A297" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B297" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="4" t="s">
+      <c r="B297" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A298" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B298" s="4">
+      <c r="B298" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="4" t="s">
+      <c r="A299" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B299" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="4" t="s">
+      <c r="B299" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A300" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B300" s="4">
+      <c r="B300" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="4" t="s">
+      <c r="A301" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B301" s="4">
+      <c r="B301" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="4" t="s">
+      <c r="A302" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B302" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="4" t="s">
+      <c r="B302" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B303" s="4">
+      <c r="B303" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4178,17 +4191,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="155" style="3" customWidth="1"/>
+    <col min="1" max="1" width="106.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B1" t="s">
@@ -4196,7 +4209,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B2">
@@ -4204,7 +4217,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B3">
@@ -4212,7 +4225,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4">
@@ -4220,7 +4233,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B5">
@@ -4228,7 +4241,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B6">
@@ -4236,7 +4249,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B7">
@@ -4244,7 +4257,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B8">
@@ -4252,7 +4265,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B9">
@@ -4260,15 +4273,15 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B11">
@@ -4276,7 +4289,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B12">
@@ -4284,7 +4297,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B13">
@@ -4292,7 +4305,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -4300,7 +4313,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B15">
@@ -4308,7 +4321,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B16">
@@ -4316,7 +4329,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B17">
@@ -4324,7 +4337,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B18">
@@ -4332,7 +4345,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B19">
@@ -4340,7 +4353,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B20">
@@ -4348,7 +4361,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B21">
@@ -4356,7 +4369,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B22">
@@ -4364,7 +4377,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B23">
@@ -4372,7 +4385,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B24">
@@ -4380,7 +4393,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B25">
@@ -4388,15 +4401,15 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>263</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B27">
@@ -4404,7 +4417,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B28">
@@ -4412,7 +4425,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B29">
@@ -4420,15 +4433,15 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B31">
@@ -4436,7 +4449,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B32">
@@ -4444,7 +4457,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>399</v>
       </c>
       <c r="B33">
@@ -4452,7 +4465,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B34">
@@ -4460,7 +4473,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B35">
@@ -4468,7 +4481,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B36">
@@ -4476,15 +4489,15 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B38">
@@ -4492,7 +4505,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B39">
@@ -4500,15 +4513,15 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B41">
@@ -4516,7 +4529,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B42">
@@ -4524,7 +4537,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>277</v>
       </c>
       <c r="B43">
@@ -4532,15 +4545,15 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B45">
@@ -4548,7 +4561,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B46">
@@ -4556,7 +4569,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B47">
@@ -4564,7 +4577,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B48">
@@ -4575,7 +4588,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B49">
@@ -4583,23 +4596,23 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B52">
@@ -4607,7 +4620,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B53">
@@ -4615,7 +4628,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B54">
@@ -4623,7 +4636,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>287</v>
       </c>
       <c r="B55">
@@ -4634,7 +4647,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>288</v>
       </c>
       <c r="B56">
@@ -4642,7 +4655,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>400</v>
       </c>
       <c r="B57">
@@ -4650,7 +4663,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B58">
@@ -4658,7 +4671,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B59">
@@ -4666,7 +4679,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B60">
@@ -4677,7 +4690,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B61">
@@ -4688,7 +4701,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>293</v>
       </c>
       <c r="B62">
@@ -4696,15 +4709,15 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>294</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>295</v>
       </c>
       <c r="B64">
@@ -4712,7 +4725,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B65">
@@ -4720,7 +4733,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B66">
@@ -4728,7 +4741,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B67">
@@ -4736,7 +4749,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B68">
@@ -4744,7 +4757,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B69">
@@ -4755,15 +4768,15 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>299</v>
       </c>
       <c r="B71">
@@ -4771,7 +4784,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>300</v>
       </c>
       <c r="B72">
@@ -4779,7 +4792,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B73">
@@ -4787,7 +4800,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B74">
@@ -4795,7 +4808,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B75">
@@ -4803,7 +4816,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B76">
@@ -4814,7 +4827,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B77">
@@ -4822,7 +4835,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>302</v>
       </c>
       <c r="B78">
@@ -4833,7 +4846,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>303</v>
       </c>
       <c r="B79">
@@ -4841,15 +4854,15 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>304</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>305</v>
       </c>
       <c r="B81">
@@ -4857,7 +4870,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>306</v>
       </c>
       <c r="B82">
@@ -4865,7 +4878,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B83">
@@ -4873,7 +4886,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>307</v>
       </c>
       <c r="B84">
@@ -4881,7 +4894,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B85">
@@ -4889,7 +4902,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B86">
@@ -4897,7 +4910,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>309</v>
       </c>
       <c r="B87">
@@ -4905,7 +4918,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B88">
@@ -4913,7 +4926,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>310</v>
       </c>
       <c r="B89">
@@ -4921,7 +4934,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>311</v>
       </c>
       <c r="B90">
@@ -4929,7 +4942,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>312</v>
       </c>
       <c r="B91">
@@ -4937,7 +4950,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>313</v>
       </c>
       <c r="B92">
@@ -4945,7 +4958,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>314</v>
       </c>
       <c r="B93">
@@ -4953,7 +4966,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>315</v>
       </c>
       <c r="B94">
@@ -4961,7 +4974,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B95">
@@ -4969,7 +4982,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>317</v>
       </c>
       <c r="B96">
@@ -4977,7 +4990,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>318</v>
       </c>
       <c r="B97">
@@ -4985,7 +4998,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>319</v>
       </c>
       <c r="B98">
@@ -4993,7 +5006,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
         <v>320</v>
       </c>
       <c r="B99">
@@ -5001,7 +5014,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B100">
@@ -5009,7 +5022,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="2" t="s">
         <v>322</v>
       </c>
       <c r="B101">
@@ -5017,7 +5030,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>323</v>
       </c>
       <c r="B102">
@@ -5025,15 +5038,15 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="2" t="s">
         <v>324</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>325</v>
       </c>
       <c r="B104">
@@ -5041,7 +5054,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B105">
@@ -5049,7 +5062,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B106">
@@ -5057,7 +5070,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B107">
@@ -5065,7 +5078,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B108">
@@ -5073,7 +5086,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="2" t="s">
         <v>327</v>
       </c>
       <c r="B109">
@@ -5081,7 +5094,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="2" t="s">
         <v>328</v>
       </c>
       <c r="B110">
@@ -5089,7 +5102,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B111">
@@ -5097,7 +5110,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B112">
@@ -5105,15 +5118,15 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="2" t="s">
         <v>330</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>331</v>
       </c>
       <c r="B114">
@@ -5121,7 +5134,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="2" t="s">
         <v>332</v>
       </c>
       <c r="B115">
@@ -5129,7 +5142,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="2" t="s">
         <v>333</v>
       </c>
       <c r="B116">
@@ -5137,7 +5150,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B117">
@@ -5145,7 +5158,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B118">
@@ -5153,15 +5166,15 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="2" t="s">
         <v>334</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
+    <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B120">
@@ -5169,7 +5182,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="2" t="s">
         <v>336</v>
       </c>
       <c r="B121">
@@ -5177,7 +5190,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B122">
@@ -5185,7 +5198,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="2" t="s">
         <v>337</v>
       </c>
       <c r="B123">
@@ -5193,7 +5206,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="2" t="s">
         <v>338</v>
       </c>
       <c r="B124">
@@ -5201,7 +5214,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B125">
@@ -5209,7 +5222,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="2" t="s">
         <v>339</v>
       </c>
       <c r="B126">
@@ -5217,7 +5230,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B127">
@@ -5225,7 +5238,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="2" t="s">
         <v>340</v>
       </c>
       <c r="B128">
@@ -5233,7 +5246,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="2" t="s">
         <v>341</v>
       </c>
       <c r="B129">
@@ -5241,7 +5254,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="2" t="s">
         <v>342</v>
       </c>
       <c r="B130">
@@ -5249,12 +5262,12 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="2" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B132">
@@ -5262,7 +5275,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="2" t="s">
         <v>344</v>
       </c>
       <c r="B133">
@@ -5270,15 +5283,15 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="2" t="s">
         <v>345</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
+    <row r="135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
         <v>346</v>
       </c>
       <c r="B135">
@@ -5286,7 +5299,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="2" t="s">
         <v>347</v>
       </c>
       <c r="B136">
@@ -5294,7 +5307,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B137">
@@ -5302,7 +5315,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="2" t="s">
         <v>348</v>
       </c>
       <c r="B138">
@@ -5310,7 +5323,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="2" t="s">
         <v>349</v>
       </c>
       <c r="B139">
@@ -5318,7 +5331,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B140">
@@ -5326,7 +5339,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B141">
@@ -5334,7 +5347,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="2" t="s">
         <v>350</v>
       </c>
       <c r="B142">
@@ -5342,7 +5355,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="2" t="s">
         <v>351</v>
       </c>
       <c r="B143">
@@ -5350,15 +5363,15 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="2" t="s">
         <v>352</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
+    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
         <v>353</v>
       </c>
       <c r="B145">
@@ -5366,7 +5379,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="2" t="s">
         <v>354</v>
       </c>
       <c r="B146">
@@ -5374,7 +5387,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="2" t="s">
         <v>355</v>
       </c>
       <c r="B147">
@@ -5382,7 +5395,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="2" t="s">
         <v>356</v>
       </c>
       <c r="B148">
@@ -5390,7 +5403,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B149">
@@ -5398,7 +5411,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="2" t="s">
         <v>358</v>
       </c>
       <c r="B150">
@@ -5406,7 +5419,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="2" t="s">
         <v>359</v>
       </c>
       <c r="B151">
@@ -5414,7 +5427,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="2" t="s">
         <v>360</v>
       </c>
       <c r="B152">
@@ -5422,7 +5435,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="2" t="s">
         <v>361</v>
       </c>
       <c r="B153">
@@ -5430,7 +5443,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B154">
@@ -5438,7 +5451,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="2" t="s">
         <v>362</v>
       </c>
       <c r="B155">
@@ -5446,7 +5459,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="2" t="s">
         <v>363</v>
       </c>
       <c r="B156">
@@ -5454,7 +5467,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B157">
@@ -5462,7 +5475,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="2" t="s">
         <v>364</v>
       </c>
       <c r="B158">
@@ -5470,7 +5483,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="2" t="s">
         <v>365</v>
       </c>
       <c r="B159">
@@ -5478,7 +5491,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B160">
@@ -5486,7 +5499,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="2" t="s">
         <v>366</v>
       </c>
       <c r="B161">
@@ -5494,7 +5507,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B162">
@@ -5502,7 +5515,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="2" t="s">
         <v>367</v>
       </c>
       <c r="B163">
@@ -5510,7 +5523,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B164">
@@ -5518,7 +5531,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="2" t="s">
         <v>368</v>
       </c>
       <c r="B165">
@@ -5526,7 +5539,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="2" t="s">
         <v>369</v>
       </c>
       <c r="B166">
@@ -5534,7 +5547,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="2" t="s">
         <v>370</v>
       </c>
       <c r="B167">
@@ -5542,7 +5555,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="2" t="s">
         <v>371</v>
       </c>
       <c r="B168">
@@ -5550,7 +5563,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B169">
@@ -5558,15 +5571,15 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="2" t="s">
         <v>372</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
+    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
         <v>373</v>
       </c>
       <c r="B171">
@@ -5574,7 +5587,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="2" t="s">
         <v>374</v>
       </c>
       <c r="B172">
@@ -5582,7 +5595,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B173">
@@ -5590,7 +5603,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="2" t="s">
         <v>375</v>
       </c>
       <c r="B174">
@@ -5598,7 +5611,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B175">
@@ -5606,7 +5619,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B176">
@@ -5614,15 +5627,15 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B177">
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
+    <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
         <v>377</v>
       </c>
       <c r="B178">
@@ -5630,7 +5643,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="2" t="s">
         <v>378</v>
       </c>
       <c r="B179">
@@ -5638,7 +5651,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="2" t="s">
         <v>379</v>
       </c>
       <c r="B180">
@@ -5646,7 +5659,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B181">
@@ -5654,7 +5667,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="2" t="s">
         <v>380</v>
       </c>
       <c r="B182">
@@ -5662,7 +5675,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B183">
@@ -5670,7 +5683,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="2" t="s">
         <v>382</v>
       </c>
       <c r="B184">
@@ -5678,7 +5691,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="2" t="s">
         <v>383</v>
       </c>
       <c r="B185">
@@ -5686,7 +5699,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="2" t="s">
         <v>384</v>
       </c>
       <c r="B186">
@@ -5694,7 +5707,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="2" t="s">
         <v>385</v>
       </c>
       <c r="B187">
@@ -5702,7 +5715,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B188">
@@ -5710,15 +5723,15 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="2" t="s">
         <v>386</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="3" t="s">
+    <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
         <v>387</v>
       </c>
       <c r="B190">
@@ -5726,7 +5739,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="2" t="s">
         <v>388</v>
       </c>
       <c r="B191">
@@ -5734,15 +5747,15 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="2" t="s">
         <v>389</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
+    <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
         <v>390</v>
       </c>
       <c r="B193">
@@ -5750,7 +5763,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B194">
@@ -5758,7 +5771,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B195">
@@ -5766,7 +5779,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="2" t="s">
         <v>392</v>
       </c>
       <c r="B196">
@@ -5774,7 +5787,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B197">
@@ -5782,7 +5795,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="2" t="s">
         <v>394</v>
       </c>
       <c r="B198">
@@ -5790,7 +5803,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="2" t="s">
         <v>395</v>
       </c>
       <c r="B199">
@@ -5798,7 +5811,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="2" t="s">
         <v>396</v>
       </c>
       <c r="B200">
@@ -5806,7 +5819,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="2" t="s">
         <v>397</v>
       </c>
       <c r="B201">

--- a/Projeto 2/tweets_certos_2.0.xlsx
+++ b/Projeto 2/tweets_certos_2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Documents\GitHub\Ciencia-dos-Dados1\Ciencia-dos-Dados\Projeto 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gustavo/Documents/GitHub/Ciencia-dos-Dados/Projeto 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4D697A-4B6D-4ED7-8952-C34ADD371BF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8019CA3F-2C7A-F34E-B14E-25AE528D6AB8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="460" windowWidth="25080" windowHeight="15640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="402">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1325,6 +1325,9 @@
   </si>
   <si>
     <t xml:space="preserve"> chup ho ja,pagal https://t.co/qknl3kaagw</t>
+  </si>
+  <si>
+    <t>rel/irrel</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1428,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1751,13 +1754,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="100.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="100.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>201</v>
       </c>
@@ -1773,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>202</v>
       </c>
@@ -1781,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>203</v>
       </c>
@@ -1789,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1797,7 +1800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>204</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>205</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>206</v>
       </c>
@@ -1821,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>207</v>
       </c>
@@ -1829,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>208</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>209</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>210</v>
       </c>
@@ -1853,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>211</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>207</v>
       </c>
@@ -1869,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>212</v>
       </c>
@@ -1877,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>213</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>214</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>215</v>
       </c>
@@ -1901,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>216</v>
       </c>
@@ -1909,7 +1912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
@@ -1917,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>217</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>218</v>
       </c>
@@ -1933,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>219</v>
       </c>
@@ -1941,7 +1944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>220</v>
       </c>
@@ -1949,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>12</v>
       </c>
@@ -1957,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>221</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>222</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>223</v>
       </c>
@@ -1981,7 +1984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>224</v>
       </c>
@@ -1989,7 +1992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>225</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>23</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>226</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>227</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>74</v>
       </c>
@@ -2029,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>228</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>229</v>
       </c>
@@ -2045,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>230</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>231</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>232</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>233</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>234</v>
       </c>
@@ -2085,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>235</v>
       </c>
@@ -2093,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>236</v>
       </c>
@@ -2101,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>237</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>226</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>238</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>239</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>240</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>241</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>242</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>16</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>226</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>243</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>1</v>
       </c>
@@ -2189,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>2</v>
       </c>
@@ -2197,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>3</v>
       </c>
@@ -2205,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>4</v>
       </c>
@@ -2213,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>5</v>
       </c>
@@ -2221,7 +2224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>6</v>
       </c>
@@ -2229,7 +2232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>7</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>8</v>
       </c>
@@ -2245,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>6</v>
       </c>
@@ -2253,7 +2256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>9</v>
       </c>
@@ -2261,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>10</v>
       </c>
@@ -2269,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>11</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>12</v>
       </c>
@@ -2285,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>13</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>14</v>
       </c>
@@ -2301,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>15</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>16</v>
       </c>
@@ -2317,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>17</v>
       </c>
@@ -2325,7 +2328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>18</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>19</v>
       </c>
@@ -2341,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>20</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>21</v>
       </c>
@@ -2357,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>22</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>23</v>
       </c>
@@ -2373,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>24</v>
       </c>
@@ -2381,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>25</v>
       </c>
@@ -2389,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>26</v>
       </c>
@@ -2397,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>13</v>
       </c>
@@ -2405,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>27</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>28</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>29</v>
       </c>
@@ -2429,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>30</v>
       </c>
@@ -2437,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>31</v>
       </c>
@@ -2445,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>32</v>
       </c>
@@ -2453,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>33</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>34</v>
       </c>
@@ -2469,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>35</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>13</v>
       </c>
@@ -2485,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>36</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>37</v>
       </c>
@@ -2501,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>12</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>38</v>
       </c>
@@ -2517,7 +2520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>13</v>
       </c>
@@ -2525,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>39</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>40</v>
       </c>
@@ -2541,7 +2544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>41</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>42</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>41</v>
       </c>
@@ -2565,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>43</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>44</v>
       </c>
@@ -2581,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>45</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>46</v>
       </c>
@@ -2597,7 +2600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>47</v>
       </c>
@@ -2605,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>48</v>
       </c>
@@ -2613,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>49</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>50</v>
       </c>
@@ -2629,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>51</v>
       </c>
@@ -2637,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>52</v>
       </c>
@@ -2645,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>53</v>
       </c>
@@ -2653,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>54</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>55</v>
       </c>
@@ -2669,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>23</v>
       </c>
@@ -2677,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>56</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>57</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>58</v>
       </c>
@@ -2701,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -2709,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>59</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>60</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>61</v>
       </c>
@@ -2733,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>62</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>63</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>64</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>13</v>
       </c>
@@ -2765,7 +2768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>65</v>
       </c>
@@ -2773,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>23</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>23</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>66</v>
       </c>
@@ -2797,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>67</v>
       </c>
@@ -2805,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>68</v>
       </c>
@@ -2813,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>69</v>
       </c>
@@ -2821,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>70</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>23</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>71</v>
       </c>
@@ -2845,7 +2848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>72</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>71</v>
       </c>
@@ -2861,7 +2864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>73</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>23</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>74</v>
       </c>
@@ -2885,7 +2888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>75</v>
       </c>
@@ -2893,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>76</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>77</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>74</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>78</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>13</v>
       </c>
@@ -2933,7 +2936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>79</v>
       </c>
@@ -2941,7 +2944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>80</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>81</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>23</v>
       </c>
@@ -2965,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>82</v>
       </c>
@@ -2973,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>35</v>
       </c>
@@ -2981,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>83</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>84</v>
       </c>
@@ -2997,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>85</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>86</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>87</v>
       </c>
@@ -3021,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>35</v>
       </c>
@@ -3029,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>51</v>
       </c>
@@ -3037,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>88</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>89</v>
       </c>
@@ -3053,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>90</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>91</v>
       </c>
@@ -3069,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>92</v>
       </c>
@@ -3077,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>93</v>
       </c>
@@ -3085,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>35</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>94</v>
       </c>
@@ -3101,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>95</v>
       </c>
@@ -3109,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>96</v>
       </c>
@@ -3117,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>97</v>
       </c>
@@ -3125,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>98</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>99</v>
       </c>
@@ -3141,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>100</v>
       </c>
@@ -3149,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>101</v>
       </c>
@@ -3157,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>34</v>
       </c>
@@ -3165,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>102</v>
       </c>
@@ -3173,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>103</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>104</v>
       </c>
@@ -3189,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>105</v>
       </c>
@@ -3197,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>106</v>
       </c>
@@ -3205,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>107</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>12</v>
       </c>
@@ -3221,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>108</v>
       </c>
@@ -3229,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>51</v>
       </c>
@@ -3237,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>109</v>
       </c>
@@ -3245,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>110</v>
       </c>
@@ -3253,7 +3256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>111</v>
       </c>
@@ -3261,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>112</v>
       </c>
@@ -3269,7 +3272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>113</v>
       </c>
@@ -3277,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>114</v>
       </c>
@@ -3285,7 +3288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>115</v>
       </c>
@@ -3293,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>116</v>
       </c>
@@ -3301,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>117</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>118</v>
       </c>
@@ -3317,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>51</v>
       </c>
@@ -3325,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>119</v>
       </c>
@@ -3333,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>120</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>121</v>
       </c>
@@ -3349,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>122</v>
       </c>
@@ -3357,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>123</v>
       </c>
@@ -3365,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>71</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>124</v>
       </c>
@@ -3381,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>125</v>
       </c>
@@ -3389,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>23</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>126</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>13</v>
       </c>
@@ -3413,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>127</v>
       </c>
@@ -3421,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>128</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>51</v>
       </c>
@@ -3437,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>129</v>
       </c>
@@ -3445,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>130</v>
       </c>
@@ -3453,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>131</v>
       </c>
@@ -3461,7 +3464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>132</v>
       </c>
@@ -3469,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>133</v>
       </c>
@@ -3477,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>134</v>
       </c>
@@ -3485,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>51</v>
       </c>
@@ -3493,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>13</v>
       </c>
@@ -3501,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>135</v>
       </c>
@@ -3509,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>51</v>
       </c>
@@ -3517,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>136</v>
       </c>
@@ -3525,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>137</v>
       </c>
@@ -3533,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>138</v>
       </c>
@@ -3541,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>139</v>
       </c>
@@ -3549,7 +3552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>140</v>
       </c>
@@ -3557,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>141</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>142</v>
       </c>
@@ -3573,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>23</v>
       </c>
@@ -3581,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>143</v>
       </c>
@@ -3589,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>144</v>
       </c>
@@ -3597,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>109</v>
       </c>
@@ -3605,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>145</v>
       </c>
@@ -3613,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>146</v>
       </c>
@@ -3621,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>147</v>
       </c>
@@ -3629,7 +3632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>148</v>
       </c>
@@ -3637,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>149</v>
       </c>
@@ -3645,7 +3648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
         <v>12</v>
       </c>
@@ -3653,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>150</v>
       </c>
@@ -3661,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
         <v>151</v>
       </c>
@@ -3669,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>13</v>
       </c>
@@ -3677,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>152</v>
       </c>
@@ -3685,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
         <v>153</v>
       </c>
@@ -3693,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>154</v>
       </c>
@@ -3701,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
         <v>13</v>
       </c>
@@ -3709,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>155</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
         <v>156</v>
       </c>
@@ -3725,7 +3728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
         <v>157</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
         <v>158</v>
       </c>
@@ -3741,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>159</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>160</v>
       </c>
@@ -3757,7 +3760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>161</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>35</v>
       </c>
@@ -3773,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
         <v>162</v>
       </c>
@@ -3781,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>51</v>
       </c>
@@ -3789,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>163</v>
       </c>
@@ -3797,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>164</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
         <v>165</v>
       </c>
@@ -3813,7 +3816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
         <v>166</v>
       </c>
@@ -3821,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
         <v>35</v>
       </c>
@@ -3829,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
         <v>167</v>
       </c>
@@ -3837,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
         <v>23</v>
       </c>
@@ -3845,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
         <v>13</v>
       </c>
@@ -3853,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>168</v>
       </c>
@@ -3861,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>23</v>
       </c>
@@ -3869,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
         <v>169</v>
       </c>
@@ -3877,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
         <v>170</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>171</v>
       </c>
@@ -3893,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
         <v>172</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
         <v>173</v>
       </c>
@@ -3909,7 +3912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
         <v>174</v>
       </c>
@@ -3917,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
         <v>175</v>
       </c>
@@ -3925,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
         <v>176</v>
       </c>
@@ -3933,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>177</v>
       </c>
@@ -3941,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
         <v>178</v>
       </c>
@@ -3949,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
         <v>179</v>
       </c>
@@ -3957,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
         <v>23</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
         <v>12</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
         <v>180</v>
       </c>
@@ -3981,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
         <v>181</v>
       </c>
@@ -3989,7 +3992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
         <v>182</v>
       </c>
@@ -3997,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
         <v>183</v>
       </c>
@@ -4005,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>184</v>
       </c>
@@ -4013,7 +4016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>185</v>
       </c>
@@ -4021,7 +4024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
         <v>186</v>
       </c>
@@ -4029,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
         <v>23</v>
       </c>
@@ -4037,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
         <v>51</v>
       </c>
@@ -4045,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
         <v>187</v>
       </c>
@@ -4053,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
         <v>188</v>
       </c>
@@ -4061,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
         <v>189</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>190</v>
       </c>
@@ -4077,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>191</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>192</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
         <v>193</v>
       </c>
@@ -4101,7 +4104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>194</v>
       </c>
@@ -4109,7 +4112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
         <v>195</v>
       </c>
@@ -4117,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
         <v>196</v>
       </c>
@@ -4125,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
         <v>197</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
         <v>81</v>
       </c>
@@ -4141,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
         <v>198</v>
       </c>
@@ -4149,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
         <v>199</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
         <v>200</v>
       </c>
@@ -4165,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="6" t="s">
         <v>201</v>
       </c>
@@ -4173,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
         <v>202</v>
       </c>
@@ -4192,23 +4195,26 @@
   <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="106.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="106.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>245</v>
       </c>
@@ -4216,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>246</v>
       </c>
@@ -4224,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -4232,7 +4238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>247</v>
       </c>
@@ -4240,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>187</v>
       </c>
@@ -4248,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -4256,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -4264,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>248</v>
       </c>
@@ -4272,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>249</v>
       </c>
@@ -4280,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>250</v>
       </c>
@@ -4288,7 +4294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>251</v>
       </c>
@@ -4296,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>252</v>
       </c>
@@ -4304,7 +4310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -4312,7 +4318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>253</v>
       </c>
@@ -4320,7 +4326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>254</v>
       </c>
@@ -4328,7 +4334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>255</v>
       </c>
@@ -4336,7 +4342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>256</v>
       </c>
@@ -4344,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>257</v>
       </c>
@@ -4352,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>258</v>
       </c>
@@ -4360,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>259</v>
       </c>
@@ -4368,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>260</v>
       </c>
@@ -4376,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>261</v>
       </c>
@@ -4384,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -4392,7 +4398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>262</v>
       </c>
@@ -4400,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>263</v>
       </c>
@@ -4408,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>264</v>
       </c>
@@ -4416,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>265</v>
       </c>
@@ -4424,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>266</v>
       </c>
@@ -4432,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>267</v>
       </c>
@@ -4440,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>268</v>
       </c>
@@ -4448,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>269</v>
       </c>
@@ -4456,7 +4462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>399</v>
       </c>
@@ -4464,7 +4470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>270</v>
       </c>
@@ -4472,7 +4478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>271</v>
       </c>
@@ -4480,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>272</v>
       </c>
@@ -4488,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>273</v>
       </c>
@@ -4496,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>274</v>
       </c>
@@ -4504,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>51</v>
       </c>
@@ -4512,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>275</v>
       </c>
@@ -4520,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>276</v>
       </c>
@@ -4528,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
@@ -4536,7 +4542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>277</v>
       </c>
@@ -4544,7 +4550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>278</v>
       </c>
@@ -4552,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>279</v>
       </c>
@@ -4560,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
@@ -4568,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>280</v>
       </c>
@@ -4576,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>281</v>
       </c>
@@ -4587,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>282</v>
       </c>
@@ -4595,7 +4601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>283</v>
       </c>
@@ -4603,7 +4609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>284</v>
       </c>
@@ -4611,7 +4617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>285</v>
       </c>
@@ -4619,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>286</v>
       </c>
@@ -4627,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
@@ -4635,7 +4641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>287</v>
       </c>
@@ -4646,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>288</v>
       </c>
@@ -4654,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>400</v>
       </c>
@@ -4662,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>289</v>
       </c>
@@ -4670,7 +4676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>290</v>
       </c>
@@ -4678,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>291</v>
       </c>
@@ -4689,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>292</v>
       </c>
@@ -4700,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>293</v>
       </c>
@@ -4708,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>294</v>
       </c>
@@ -4716,7 +4722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>295</v>
       </c>
@@ -4724,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>296</v>
       </c>
@@ -4732,7 +4738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>297</v>
       </c>
@@ -4740,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>13</v>
       </c>
@@ -4748,7 +4754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>34</v>
       </c>
@@ -4756,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>298</v>
       </c>
@@ -4767,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
@@ -4775,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>299</v>
       </c>
@@ -4783,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>300</v>
       </c>
@@ -4791,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>51</v>
       </c>
@@ -4799,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>122</v>
       </c>
@@ -4807,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>301</v>
       </c>
@@ -4815,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>35</v>
       </c>
@@ -4826,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>51</v>
       </c>
@@ -4834,7 +4840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>302</v>
       </c>
@@ -4845,7 +4851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>303</v>
       </c>
@@ -4853,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>304</v>
       </c>
@@ -4861,7 +4867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>305</v>
       </c>
@@ -4869,7 +4875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>306</v>
       </c>
@@ -4877,7 +4883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>23</v>
       </c>
@@ -4885,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>307</v>
       </c>
@@ -4893,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>308</v>
       </c>
@@ -4901,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>51</v>
       </c>
@@ -4909,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>309</v>
       </c>
@@ -4917,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>23</v>
       </c>
@@ -4925,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>310</v>
       </c>
@@ -4933,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>311</v>
       </c>
@@ -4941,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>312</v>
       </c>
@@ -4949,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>313</v>
       </c>
@@ -4957,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>314</v>
       </c>
@@ -4965,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>315</v>
       </c>
@@ -4973,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>316</v>
       </c>
@@ -4981,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>317</v>
       </c>
@@ -4989,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>318</v>
       </c>
@@ -4997,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>319</v>
       </c>
@@ -5005,7 +5011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>320</v>
       </c>
@@ -5013,7 +5019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>321</v>
       </c>
@@ -5021,7 +5027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>322</v>
       </c>
@@ -5029,7 +5035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>323</v>
       </c>
@@ -5037,7 +5043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>324</v>
       </c>
@@ -5045,7 +5051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>325</v>
       </c>
@@ -5053,7 +5059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>35</v>
       </c>
@@ -5061,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>71</v>
       </c>
@@ -5069,7 +5075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>35</v>
       </c>
@@ -5077,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>326</v>
       </c>
@@ -5085,7 +5091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>327</v>
       </c>
@@ -5093,7 +5099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>328</v>
       </c>
@@ -5101,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>51</v>
       </c>
@@ -5109,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>329</v>
       </c>
@@ -5117,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>330</v>
       </c>
@@ -5125,7 +5131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>331</v>
       </c>
@@ -5133,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>332</v>
       </c>
@@ -5141,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>333</v>
       </c>
@@ -5149,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>138</v>
       </c>
@@ -5157,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>72</v>
       </c>
@@ -5165,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>334</v>
       </c>
@@ -5173,7 +5179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>335</v>
       </c>
@@ -5181,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>336</v>
       </c>
@@ -5189,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>23</v>
       </c>
@@ -5197,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>337</v>
       </c>
@@ -5205,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>338</v>
       </c>
@@ -5213,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>74</v>
       </c>
@@ -5221,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>339</v>
       </c>
@@ -5229,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>71</v>
       </c>
@@ -5237,7 +5243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>340</v>
       </c>
@@ -5245,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>341</v>
       </c>
@@ -5253,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>342</v>
       </c>
@@ -5261,12 +5267,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>51</v>
       </c>
@@ -5274,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>344</v>
       </c>
@@ -5282,7 +5288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>345</v>
       </c>
@@ -5290,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>346</v>
       </c>
@@ -5298,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>347</v>
       </c>
@@ -5306,7 +5312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>13</v>
       </c>
@@ -5314,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>348</v>
       </c>
@@ -5322,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>349</v>
       </c>
@@ -5330,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>109</v>
       </c>
@@ -5338,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>74</v>
       </c>
@@ -5346,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>350</v>
       </c>
@@ -5354,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>351</v>
       </c>
@@ -5362,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>352</v>
       </c>
@@ -5370,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>353</v>
       </c>
@@ -5378,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>354</v>
       </c>
@@ -5386,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>355</v>
       </c>
@@ -5394,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>356</v>
       </c>
@@ -5402,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>357</v>
       </c>
@@ -5410,7 +5416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>358</v>
       </c>
@@ -5418,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>359</v>
       </c>
@@ -5426,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>360</v>
       </c>
@@ -5434,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>361</v>
       </c>
@@ -5442,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>13</v>
       </c>
@@ -5450,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>362</v>
       </c>
@@ -5458,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>363</v>
       </c>
@@ -5466,7 +5472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>194</v>
       </c>
@@ -5474,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>364</v>
       </c>
@@ -5482,7 +5488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>365</v>
       </c>
@@ -5490,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>71</v>
       </c>
@@ -5498,7 +5504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>366</v>
       </c>
@@ -5506,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>23</v>
       </c>
@@ -5514,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>367</v>
       </c>
@@ -5522,7 +5528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>16</v>
       </c>
@@ -5530,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>368</v>
       </c>
@@ -5538,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>369</v>
       </c>
@@ -5546,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>370</v>
       </c>
@@ -5554,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>371</v>
       </c>
@@ -5562,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>109</v>
       </c>
@@ -5570,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>372</v>
       </c>
@@ -5578,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>373</v>
       </c>
@@ -5586,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>374</v>
       </c>
@@ -5594,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>138</v>
       </c>
@@ -5602,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>375</v>
       </c>
@@ -5610,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>71</v>
       </c>
@@ -5618,7 +5624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>226</v>
       </c>
@@ -5626,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>376</v>
       </c>
@@ -5634,7 +5640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>377</v>
       </c>
@@ -5642,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>378</v>
       </c>
@@ -5650,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>379</v>
       </c>
@@ -5658,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>23</v>
       </c>
@@ -5666,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>380</v>
       </c>
@@ -5674,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>381</v>
       </c>
@@ -5682,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>382</v>
       </c>
@@ -5690,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>383</v>
       </c>
@@ -5698,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>384</v>
       </c>
@@ -5706,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>385</v>
       </c>
@@ -5714,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>109</v>
       </c>
@@ -5722,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>386</v>
       </c>
@@ -5730,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>387</v>
       </c>
@@ -5738,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>388</v>
       </c>
@@ -5746,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>389</v>
       </c>
@@ -5754,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>390</v>
       </c>
@@ -5762,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>34</v>
       </c>
@@ -5770,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>391</v>
       </c>
@@ -5778,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>392</v>
       </c>
@@ -5786,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>393</v>
       </c>
@@ -5794,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>394</v>
       </c>
@@ -5802,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>395</v>
       </c>
@@ -5810,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>396</v>
       </c>
@@ -5818,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>397</v>
       </c>
